--- a/data/CovidNews.xlsx
+++ b/data/CovidNews.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>23815</t>
+          <t>15130</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>5487</t>
+          <t>788</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>9547</t>
+          <t>7086</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -560,27 +560,27 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -614,98 +614,98 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>乌鲁木齐</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -722,49 +722,49 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>亳州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -776,12 +776,12 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>乌鲁木齐</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -791,34 +791,34 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -830,12 +830,12 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>扬州</t>
+          <t>亳州</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -867,39 +867,39 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>32</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>丽水</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -911,49 +911,49 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>吉林市</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -965,12 +965,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>丽水</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -980,34 +980,34 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1019,22 +1019,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>吉林市</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1046,22 +1046,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>呼伦贝尔</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1073,27 +1073,27 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>扬州</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1127,76 +1127,76 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>呼伦贝尔</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>泰州</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>延边</t>
+          <t>嘉兴</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1235,17 +1235,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1262,12 +1262,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1289,12 +1289,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
@@ -1316,12 +1316,12 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>达州</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
@@ -1370,12 +1370,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -1402,44 +1402,44 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -1451,22 +1451,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>红河州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
@@ -1478,12 +1478,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>黄山</t>
+          <t>菏泽</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
@@ -1532,49 +1532,49 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>巴中</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -1586,22 +1586,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
@@ -1613,22 +1613,22 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>大理州</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
@@ -1640,22 +1640,22 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
@@ -1667,44 +1667,44 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>信阳</t>
+          <t>淮北</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>北海</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -1714,24 +1714,24 @@
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>文山</t>
+          <t>信阳</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -1741,19 +1741,19 @@
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1763,24 +1763,24 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>滨州</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -1790,24 +1790,24 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
@@ -1817,24 +1817,24 @@
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>菏泽</t>
+          <t>邯郸</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
@@ -1844,334 +1844,10 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>四川</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>内江</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>江西</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>南昌</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>江西</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>抚州</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>河南</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>百色</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>云南</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>西双版纳傣族自治州</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>湖北</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>咸宁</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>福建</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>宁德</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>邢台</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>唐山</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>邯郸</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
